--- a/medicine/Enfance/Paul_Vialar/Paul_Vialar.xlsx
+++ b/medicine/Enfance/Paul_Vialar/Paul_Vialar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Vialar, né le 18 septembre 1898[1] à Saint-Denis et mort le 8 janvier 1996 à Vaucresson, est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Vialar, né le 18 septembre 1898 à Saint-Denis et mort le 8 janvier 1996 à Vaucresson, est un écrivain français.
 </t>
         </is>
       </c>
@@ -513,55 +525,132 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-La famille Vialar est originaire de Gaillac dans le Tarn et il est donc apparenté à sainte Émilie de Vialar. Paul Marie Ernest est le fils de Pierre Marie Eugène Vialar, distillateur, et de Geneviève Nabielak, fille de Ludwik Nabielak ; sa tante Marguerite Louise Emilie Conrad épouse le 9 janvier 1889 le général de division d'aviation Gaëtan Bonnier (1857-1944).
-Parcours
-Il est initié très jeune à la chasse. Lorsqu'il a 14 ans, Gaston Poulenc, fondateur de Rhône-Poulenc, son tuteur, lui offre son premier fusil. La chasse est sa grande passion, il lui consacre ses fins de semaine pendant les quatre mois d'ouverture. Il chasse notamment avec le maréchal Juin et Émile Henriot[2]. Il fait ses études au lycée Janson-de-Sailly à Paris et en Angleterre.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Vialar est originaire de Gaillac dans le Tarn et il est donc apparenté à sainte Émilie de Vialar. Paul Marie Ernest est le fils de Pierre Marie Eugène Vialar, distillateur, et de Geneviève Nabielak, fille de Ludwik Nabielak ; sa tante Marguerite Louise Emilie Conrad épouse le 9 janvier 1889 le général de division d'aviation Gaëtan Bonnier (1857-1944).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est initié très jeune à la chasse. Lorsqu'il a 14 ans, Gaston Poulenc, fondateur de Rhône-Poulenc, son tuteur, lui offre son premier fusil. La chasse est sa grande passion, il lui consacre ses fins de semaine pendant les quatre mois d'ouverture. Il chasse notamment avec le maréchal Juin et Émile Henriot. Il fait ses études au lycée Janson-de-Sailly à Paris et en Angleterre.
 Paul Vialar combat pendant la Première Guerre mondiale dans un corps franc d'infanterie. Il est dans le même régiment que Marcel Wiriath et devient son ami pour la vie. 
 Après la guerre, il entre à HEC et se fait connaître par des poèmes et des pièces de théâtre (quinze, dont L'Âge de raison). Venu ensuite au roman, il est l'auteur de près de 80 ouvrages. De seize de ses romans seront tirés des films de son vivant dont il fera lui-même l'adaptation pour le cinéma français.
 En 1925 Marcel Pagnol qui vient de faire représenter sans grand succès Les Marchands de gloire au théâtre vient le voir pour lui demander conseil sur ses activités littéraires, ils deviendront des amis inséparables.
 À la demande de Georges Mandel, ministre des PTT, il devient en 1935 directeur des émissions littéraires et dramatiques de la Radio nationale jusqu'en juin 1940. 
 C'est Paul Vialar qui le 17 juin 1940 diffuse en direct depuis Bordeaux l'appel du maréchal Pétain à cesser les combats et sa demande d'armistice aux Allemands. 
-Pionnier de la télévision, le 8 décembre 1935, il réalise avec Wladimir Porché la première émission de variétés : des récepteurs sont installés dans les mairies de Paris et permettent au public de voir Madame Simone, Béatrice Bretty et Jean Toscane, alors très célèbre voix de la radio[2].
+Pionnier de la télévision, le 8 décembre 1935, il réalise avec Wladimir Porché la première émission de variétés : des récepteurs sont installés dans les mairies de Paris et permettent au public de voir Madame Simone, Béatrice Bretty et Jean Toscane, alors très célèbre voix de la radio.
 En 1960, il écrit les paroles de la chanson Les Étangs de Sologne sur une musique d'Henri Betti qui est interprétée la même année par Jean Philippe dans l'émission Toute la chanson.
 Il a longtemps vécu à Saint-Tropez avant de venir vivre à Paris, lorsqu'il a été élu président de la Société des gens de lettres, fonction qu'il exerça de 1952 à 1955.
 Président du Syndicat national des auteurs et des compositeurs (SNAC) dans les années 1960 jusqu'en 1974. Président de l'Association des écrivains sportifs. Président de l'International Writers Guild en 1969, membre du Conseil supérieur des Lettres depuis 1974. Président du Club du cirque. Président du Conseil des lettres de la radiodiffusion française avant guerre (membres Paul Valéry, André Gide, Georges Duhamel, Marcel Prévost, Henri Focillon). Président d'honneur de la Fédération nationale des sociétés d'auteurs.  
 Il possédait une maison à Lumio (Corse), à flanc de montagne, au-dessus du golfe de Calvi.
-Vie privée
-Il a deux enfants : Dominique Vialar (né le 14/12/1943 à Saint-Tropez ; mort le 10/8/2022 à Carqueiranne, Var) dont le parrain est l'éditeur Robert Denoël et la marraine la célèbre Jean Voilier et Véronique (née le 16/5/1945 à Saint-Tropez). Sa veuve Antoinette, qui était sa troisième épouse, est décédée en 2003.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a deux enfants : Dominique Vialar (né le 14/12/1943 à Saint-Tropez ; mort le 10/8/2022 à Carqueiranne, Var) dont le parrain est l'éditeur Robert Denoël et la marraine la célèbre Jean Voilier et Véronique (née le 16/5/1945 à Saint-Tropez). Sa veuve Antoinette, qui était sa troisième épouse, est décédée en 2003.
 Il est inhumé à Paris au cimetière du Père-Lachaise auprès de ses aïeux Vialar, Nabielak et Conrad.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Paul_Vialar</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix Femina 1939 pour son troisième roman, La Rose de la mer
-Grand Prix de la Ville de Paris, 1948 pour le cycle romanesque La mort est un commencement[3]
+Grand Prix de la Ville de Paris, 1948 pour le cycle romanesque La mort est un commencement
 Grand prix du Conseil supérieur de la chasse en 1959.
 Grand prix du Cirque en 1960.
 Commandeur de la Légion d'honneur.
@@ -571,44 +660,90 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Vialar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-Cycle La mort est un commencement (1948)
-Le Bal des sauvages
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cycle La mort est un commencement (1948)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Bal des sauvages
 Le Clos des trois maisons
 Le Petit Jour
 Les Morts vivants
 Risques et Périls
 La Carambouille
 Dansons la capucine
-La Haute Mort
-Cycle La Chasse aux hommes (1952/1953)
-Le Rendez-vous
+La Haute Mort</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cycle La Chasse aux hommes (1952/1953)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Rendez-vous
 La Bête de chasse
 Les Brisées hautes
 Le Bien-aller
@@ -617,9 +752,47 @@
 Le Débucher
 Les Fins dernières
 L'Hallali
-La Curée
-Cycle Chronique française du XXe siècle (1955/1961)
-Publiés par Cino Del Duca :
+La Curée</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cycle Chronique française du XXe siècle (1955/1961)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Publiés par Cino Del Duca :
 Les Étoiles de Mars (1955)
 Place de la République (ou Les Députés) (1956)
 Rideau (1956)
@@ -629,8 +802,47 @@
 Pas de temps pour mourir (1958)
 Les Robes noires (1958)
 Les Zingari (Ceux du cirque) (1959)
-La Farine du diable (1961)
-Autres romans
+La Farine du diable (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fatôme (1931)
 J'avais un camarade (1936)
 La Rose de la mer (1939)
@@ -657,7 +869,7 @@
 La Fin des imposteurs (1962)
 L'Homme du fleuve (1964)
 La Jeunesse du monde (1966)
-La Cravache d'or (1968)[4]
+La Cravache d'or (1968)
 Les Invités de la chasse (1969)
 Safari-Vérité (1970)
 Mon seul amour (1971)
@@ -665,22 +877,125 @@
 Le Triangle de fer (1976)
 La Chasse de décembre (1979)
 Rien que la vérité (1980)
-Recueils de nouvelles
-La Tour des amants (1947)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Tour des amants (1947)
 Images scandinaves (1950)
 Le Roman des oiseaux de chasse (1958)
 Le Roman des bêtes de chasse (1959)
-La Caille, suivi de Le Butor (1972)
-Littérature d'enfance et de jeunesse
-Le Voilier des Îles (1947)
+La Caille, suivi de Le Butor (1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Voilier des Îles (1947)
 Écrit sur le sable (1948)
 Plumes dans le vent (1951), illustrations de Henri de Linarès
 Le Petit Garçon de l'ascenseur (1957)
 Sous le pavillon noir (1958), illustrations de Chader, ouvrage paru aux Éditions Brepols et Garnier, Bruxelles
 La Cantinière de l'Empereur (1959)
-La Fin du cheval ?, suivi de Chevaux de France (1961)
-Théâtre
-L'Hostellerie du « Puits sans eau » (1921)
+La Fin du cheval ?, suivi de Chevaux de France (1961)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'Hostellerie du « Puits sans eau » (1921)
 Le premier Amour, pièce en quatre actes (créée au théâtre de la Renaissance le 30 mai 1922)
 Pohu, brave homme, comédie en un acte (1923)
 L'Âge de raison, comédie en trois actes (1924)
@@ -694,9 +1009,43 @@
 Probadjong, comédie en trois actes (1950)
 La Tragédie de Caligula, pièce radiophonique (1957)
 Le But, monologue radiophonique (1965)
-Hassan el Glaoui (1975), court dialogue dramatique écrit en collaboration avec Jean Anouilh
-Autres publications
-Le Cœur et la Boue (1921), poèmes
+Hassan el Glaoui (1975), court dialogue dramatique écrit en collaboration avec Jean Anouilh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Vialar</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Cœur et la Boue (1921), poèmes
 Cinq hommes de ce monde (1954)
 Petite Histoire cavalière de l'amour (1954)
 La Découverte de la vie, illustrations de Katherine Librowicz (1955)
